--- a/biology/Botanique/Brosimum_guianense/Brosimum_guianense.xlsx
+++ b/biology/Botanique/Brosimum_guianense/Brosimum_guianense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brosimum guianense
 Brosimum guianense, l'amourette ou la lettre mouchetée, est une espèce de plantes à fleurs de la famille des Moraceae. C'est un arbre sud-américain qui provient de Guyane et du Suriname le plus souvent.
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bois est très dense (1,10-1,20) et peut rappeler des motifs de peau de serpent. C'est pour cela qu'il est appelé Snakewood en anglais et Schlangenholz en allemand. Il ne doit cependant pas être confondu avec le Zygia de Guyane — une des nombreuses plantes connues sous le nom vernaculaire ambiguë de bois serpent  — qui est un peu moins dense, moins rare et moins précieux.
 Le nom français de « lettre mouchetée » trouve son origine dans une utilisation ancienne de ce bois : en raison de sa solidité, il était employé pour fabriquer des caractères d'imprimerie, tandis que les petites taches noires qui ornent ce bois lui valurent l'adjectif de moucheté.
@@ -544,11 +558,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est utilisé pour fabriquer des caractères d'imprimerie, des instruments de musique (archets de violons), des manches de couteaux et le tournage d'objets précieux comme des stylos. Les troncs sont petits et l'aubier est souvent enlevé à l'abattage, c'est pourquoi seuls de petits objets peuvent être réalisés en amourette.
-Il est bien connu en France, au moins depuis le XVIIIe siècle comme en témoigne l'article de l'Encyclopédie "L’Art du menuisier ébéniste", par M. Roubo fils, maître menuisier, paru en 1774 : « Amourette est un bois pesant dur et compact, de couleur jaunâtre, un peu rousse, et veiné de brun rougeâtre. »[2]
-Il est traditionnellement utilisé par les  amérindiens wayãpis pour fabriquer les arcs[3].
+Il est bien connu en France, au moins depuis le XVIIIe siècle comme en témoigne l'article de l'Encyclopédie "L’Art du menuisier ébéniste", par M. Roubo fils, maître menuisier, paru en 1774 : « Amourette est un bois pesant dur et compact, de couleur jaunâtre, un peu rousse, et veiné de brun rougeâtre. »
+Il est traditionnellement utilisé par les  amérindiens wayãpis pour fabriquer les arcs.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « 1. PIRATINERA Guianenſis. (TABULA 340. Fig. 1.)
 Pſeucta-ſantalum croceum. Sloan. Cat. 213.
 An arbor Guianæa Piratiminere vulgò Letterhout. Laet.
